--- a/Operating Cost Calcs.xlsx
+++ b/Operating Cost Calcs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
@@ -219,8 +219,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -306,19 +306,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,12 +898,6 @@
       <c r="C25">
         <f>SUM(C1:C24)</f>
         <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <f>C25*0</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3110,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3212,12 +3206,12 @@
         <v>10</v>
       </c>
       <c r="M2" s="5">
-        <f>SUM($B2:$E2)*($I2/2+$J2+$K2/2)*$H2</f>
+        <f t="shared" ref="M2:M25" si="0">SUM($B2:$E2)*($I2/2+$J2+$K2/2)*$H2</f>
         <v>296</v>
       </c>
       <c r="N2" s="10">
         <f>$D$31*($M2/60/60)</f>
-        <v>1.6444444444444444</v>
+        <v>4.9333333333333336</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3225,7 +3219,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B25" si="0">LEN("ITIS")*60/G3</f>
+        <f t="shared" ref="B3:B25" si="1">LEN("ITIS")*60/G3</f>
         <v>16</v>
       </c>
       <c r="C3" s="5">
@@ -3240,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F25" si="1">SUM($B3:$E3)*60</f>
+        <f t="shared" ref="F3:F25" si="2">SUM($B3:$E3)*60</f>
         <v>3720</v>
       </c>
       <c r="G3" s="5">
@@ -3259,16 +3253,16 @@
         <v>2</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L25" si="2">SUM($I3:$K3)</f>
+        <f t="shared" ref="L3:L25" si="3">SUM($I3:$K3)</f>
         <v>10</v>
       </c>
       <c r="M3" s="5">
-        <f>SUM($B3:$E3)*($I3/2+$J3+$K3/2)*$H3</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N25" si="3">$D$31*($M3/60/60)</f>
-        <v>1.377777777777778</v>
+        <f t="shared" ref="N3:N25" si="4">$D$31*($M3/60/60)</f>
+        <v>4.1333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3276,7 +3270,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C4" s="5">
@@ -3291,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3720</v>
       </c>
       <c r="G4" s="5">
@@ -3310,16 +3304,16 @@
         <v>2</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M4" s="5">
-        <f>SUM($B4:$E4)*($I4/2+$J4+$K4/2)*$H4</f>
+        <f t="shared" si="0"/>
         <v>248</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="3"/>
-        <v>1.377777777777778</v>
+        <f t="shared" si="4"/>
+        <v>4.1333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3327,7 +3321,7 @@
         <v>0.125</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C5" s="5">
@@ -3342,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
       <c r="G5" s="5">
@@ -3361,16 +3355,16 @@
         <v>2</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M5" s="5">
-        <f>SUM($B5:$E5)*($I5/2+$J5+$K5/2)*$H5</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="3"/>
-        <v>1.5555555555555556</v>
+        <f t="shared" si="4"/>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3378,7 +3372,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C6" s="5">
@@ -3393,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3960</v>
       </c>
       <c r="G6" s="5">
@@ -3412,16 +3406,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M6" s="5">
-        <f>SUM($B6:$E6)*($I6/2+$J6+$K6/2)*$H6</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" si="3"/>
-        <v>1.4666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3429,7 +3423,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C7" s="5">
@@ -3444,7 +3438,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="G7" s="5">
@@ -3457,22 +3451,22 @@
         <v>2</v>
       </c>
       <c r="J7" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K7" s="5">
         <v>2</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M7" s="5">
-        <f>SUM($B7:$E7)*($I7/2+$J7+$K7/2)*$H7</f>
-        <v>960</v>
+        <f t="shared" si="0"/>
+        <v>6960</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="3"/>
-        <v>5.333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3480,7 +3474,7 @@
         <v>0.25</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C8" s="5">
@@ -3495,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60720</v>
       </c>
       <c r="G8" s="5">
@@ -3508,22 +3502,22 @@
         <v>2</v>
       </c>
       <c r="J8" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K8" s="5">
         <v>2</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M8" s="5">
-        <f>SUM($B8:$E8)*($I8/2+$J8+$K8/2)*$H8</f>
-        <v>5667.2</v>
+        <f t="shared" si="0"/>
+        <v>41087.199999999997</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" si="3"/>
-        <v>31.484444444444442</v>
+        <f t="shared" si="4"/>
+        <v>684.78666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3531,7 +3525,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C9" s="5">
@@ -3546,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67920</v>
       </c>
       <c r="G9" s="5">
@@ -3559,22 +3553,22 @@
         <v>2</v>
       </c>
       <c r="J9" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5">
         <v>2</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M9" s="5">
-        <f>SUM($B9:$E9)*($I9/2+$J9+$K9/2)*$H9</f>
-        <v>7244.8</v>
+        <f t="shared" si="0"/>
+        <v>52524.800000000003</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" si="3"/>
-        <v>40.248888888888892</v>
+        <f t="shared" si="4"/>
+        <v>875.41333333333341</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3582,7 +3576,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C10" s="5">
@@ -3597,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67920</v>
       </c>
       <c r="G10" s="5">
@@ -3610,22 +3604,22 @@
         <v>2</v>
       </c>
       <c r="J10" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K10" s="5">
         <v>2</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M10" s="5">
-        <f>SUM($B10:$E10)*($I10/2+$J10+$K10/2)*$H10</f>
-        <v>8150.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>59090.400000000001</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="3"/>
-        <v>45.28</v>
+        <f t="shared" si="4"/>
+        <v>984.84000000000015</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3633,7 +3627,7 @@
         <v>0.375</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C11" s="5">
@@ -3648,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64320</v>
       </c>
       <c r="G11" s="5">
@@ -3661,22 +3655,22 @@
         <v>2</v>
       </c>
       <c r="J11" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K11" s="5">
         <v>2</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M11" s="5">
-        <f>SUM($B11:$E11)*($I11/2+$J11+$K11/2)*$H11</f>
-        <v>8576</v>
+        <f t="shared" si="0"/>
+        <v>62176</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>47.644444444444446</v>
+        <f t="shared" si="4"/>
+        <v>1036.2666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3684,7 +3678,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C12" s="5">
@@ -3699,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11280</v>
       </c>
       <c r="G12" s="5">
@@ -3712,22 +3706,22 @@
         <v>2</v>
       </c>
       <c r="J12" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K12" s="5">
         <v>2</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M12" s="5">
-        <f>SUM($B12:$E12)*($I12/2+$J12+$K12/2)*$H12</f>
-        <v>1504</v>
+        <f t="shared" si="0"/>
+        <v>10904</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="3"/>
-        <v>8.3555555555555543</v>
+        <f t="shared" si="4"/>
+        <v>181.73333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3735,7 +3729,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C13" s="5">
@@ -3750,7 +3744,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13440</v>
       </c>
       <c r="G13" s="5">
@@ -3763,22 +3757,22 @@
         <v>2</v>
       </c>
       <c r="J13" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K13" s="5">
         <v>2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M13" s="5">
-        <f>SUM($B13:$E13)*($I13/2+$J13+$K13/2)*$H13</f>
-        <v>1792</v>
+        <f t="shared" si="0"/>
+        <v>12992</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="3"/>
-        <v>9.9555555555555557</v>
+        <f t="shared" si="4"/>
+        <v>216.53333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3786,7 +3780,7 @@
         <v>0.5</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C14" s="5">
@@ -3801,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13440</v>
       </c>
       <c r="G14" s="5">
@@ -3814,22 +3808,22 @@
         <v>2</v>
       </c>
       <c r="J14" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K14" s="5">
         <v>2</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M14" s="5">
-        <f>SUM($B14:$E14)*($I14/2+$J14+$K14/2)*$H14</f>
-        <v>1792</v>
+        <f t="shared" si="0"/>
+        <v>12992</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="3"/>
-        <v>9.9555555555555557</v>
+        <f t="shared" si="4"/>
+        <v>216.53333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3837,7 +3831,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C15" s="5">
@@ -3852,7 +3846,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11280</v>
       </c>
       <c r="G15" s="5">
@@ -3865,22 +3859,22 @@
         <v>2</v>
       </c>
       <c r="J15" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K15" s="5">
         <v>2</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M15" s="5">
-        <f>SUM($B15:$E15)*($I15/2+$J15+$K15/2)*$H15</f>
-        <v>1504</v>
+        <f t="shared" si="0"/>
+        <v>10904</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="3"/>
-        <v>8.3555555555555543</v>
+        <f t="shared" si="4"/>
+        <v>181.73333333333332</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3888,7 +3882,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C16" s="5">
@@ -3903,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11280</v>
       </c>
       <c r="G16" s="5">
@@ -3916,22 +3910,22 @@
         <v>2</v>
       </c>
       <c r="J16" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K16" s="5">
         <v>2</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M16" s="5">
-        <f>SUM($B16:$E16)*($I16/2+$J16+$K16/2)*$H16</f>
-        <v>1504</v>
+        <f t="shared" si="0"/>
+        <v>10904</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="3"/>
-        <v>8.3555555555555543</v>
+        <f t="shared" si="4"/>
+        <v>181.73333333333332</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -3939,7 +3933,7 @@
         <v>0.625</v>
       </c>
       <c r="B17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C17" s="5">
@@ -3954,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12720</v>
       </c>
       <c r="G17" s="5">
@@ -3967,22 +3961,22 @@
         <v>2</v>
       </c>
       <c r="J17" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K17" s="5">
         <v>2</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M17" s="5">
-        <f>SUM($B17:$E17)*($I17/2+$J17+$K17/2)*$H17</f>
-        <v>1696</v>
+        <f t="shared" si="0"/>
+        <v>12296</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="3"/>
-        <v>9.4222222222222225</v>
+        <f t="shared" si="4"/>
+        <v>204.93333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -3990,7 +3984,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C18" s="5">
@@ -4005,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64320</v>
       </c>
       <c r="G18" s="5">
@@ -4018,22 +4012,22 @@
         <v>2</v>
       </c>
       <c r="J18" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K18" s="5">
         <v>2</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M18" s="5">
-        <f>SUM($B18:$E18)*($I18/2+$J18+$K18/2)*$H18</f>
-        <v>8576</v>
+        <f t="shared" si="0"/>
+        <v>62176</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="3"/>
-        <v>47.644444444444446</v>
+        <f t="shared" si="4"/>
+        <v>1036.2666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -4041,7 +4035,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C19" s="5">
@@ -4056,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64320</v>
       </c>
       <c r="G19" s="5">
@@ -4069,22 +4063,22 @@
         <v>2</v>
       </c>
       <c r="J19" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K19" s="5">
         <v>2</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M19" s="5">
-        <f>SUM($B19:$E19)*($I19/2+$J19+$K19/2)*$H19</f>
-        <v>8576</v>
+        <f t="shared" si="0"/>
+        <v>62176</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="3"/>
-        <v>47.644444444444446</v>
+        <f t="shared" si="4"/>
+        <v>1036.2666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -4092,7 +4086,7 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C20" s="5">
@@ -4107,7 +4101,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60720</v>
       </c>
       <c r="G20" s="5">
@@ -4120,22 +4114,22 @@
         <v>2</v>
       </c>
       <c r="J20" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K20" s="5">
         <v>2</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M20" s="5">
-        <f>SUM($B20:$E20)*($I20/2+$J20+$K20/2)*$H20</f>
-        <v>8096</v>
+        <f t="shared" si="0"/>
+        <v>58696</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="3"/>
-        <v>44.977777777777781</v>
+        <f t="shared" si="4"/>
+        <v>978.26666666666677</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4143,7 +4137,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C21" s="5">
@@ -4158,7 +4152,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67920</v>
       </c>
       <c r="G21" s="5">
@@ -4171,22 +4165,22 @@
         <v>2</v>
       </c>
       <c r="J21" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K21" s="5">
         <v>2</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M21" s="5">
-        <f>SUM($B21:$E21)*($I21/2+$J21+$K21/2)*$H21</f>
-        <v>8150.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>59090.400000000001</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="3"/>
-        <v>45.28</v>
+        <f t="shared" si="4"/>
+        <v>984.84000000000015</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4194,7 +4188,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C22" s="5">
@@ -4209,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67920</v>
       </c>
       <c r="G22" s="5">
@@ -4222,22 +4216,22 @@
         <v>2</v>
       </c>
       <c r="J22" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K22" s="5">
         <v>2</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M22" s="5">
-        <f>SUM($B22:$E22)*($I22/2+$J22+$K22/2)*$H22</f>
-        <v>6792</v>
+        <f t="shared" si="0"/>
+        <v>49242</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="3"/>
-        <v>37.733333333333334</v>
+        <f t="shared" si="4"/>
+        <v>820.7</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4245,7 +4239,7 @@
         <v>0.875</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C23" s="5">
@@ -4260,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="G23" s="5">
@@ -4273,22 +4267,22 @@
         <v>2</v>
       </c>
       <c r="J23" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K23" s="5">
         <v>2</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M23" s="5">
-        <f>SUM($B23:$E23)*($I23/2+$J23+$K23/2)*$H23</f>
-        <v>800</v>
+        <f t="shared" si="0"/>
+        <v>5800</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="3"/>
-        <v>4.4444444444444446</v>
+        <f t="shared" si="4"/>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -4296,7 +4290,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C24" s="5">
@@ -4311,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11280</v>
       </c>
       <c r="G24" s="5">
@@ -4324,22 +4318,22 @@
         <v>2</v>
       </c>
       <c r="J24" s="5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K24" s="5">
         <v>2</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="M24" s="5">
-        <f>SUM($B24:$E24)*($I24/2+$J24+$K24/2)*$H24</f>
-        <v>752</v>
+        <f t="shared" si="0"/>
+        <v>5452</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="3"/>
-        <v>4.1777777777777771</v>
+        <f t="shared" si="4"/>
+        <v>90.86666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -4347,7 +4341,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C25" s="5">
@@ -4362,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4440</v>
       </c>
       <c r="G25" s="5">
@@ -4381,22 +4375,22 @@
         <v>2</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M25" s="5">
-        <f>SUM($B25:$E25)*($I25/2+$J25+$K25/2)*$H25</f>
+        <f t="shared" si="0"/>
         <v>296</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="3"/>
-        <v>1.6444444444444444</v>
+        <f t="shared" si="4"/>
+        <v>4.9333333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N26" s="19">
-        <f>SUM(N2:N25)*365</f>
-        <v>169856.40000000002</v>
+      <c r="N26" s="17">
+        <f>SUM(N2:N25)</f>
+        <v>9951.58</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -4409,167 +4403,167 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="11">
         <f>SUM(LEN("ITIS")*60*60*24,Minutes!F62*60*24,Hours!C25*60*60,LEN("OCLOCK")*60*24)</f>
         <v>1565280</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f>SUM($M$2:$M$25)</f>
-        <v>83764.799999999988</v>
-      </c>
-      <c r="F28" s="16"/>
+        <v>597094.80000000005</v>
+      </c>
+      <c r="F28" s="14"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="11">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="14"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="11">
         <f>D$28/D$29</f>
         <v>18.116666666666667</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <f>E$28/E$29</f>
-        <v>0.96949999999999992</v>
-      </c>
-      <c r="F30" s="16"/>
+        <v>6.9108194444444448</v>
+      </c>
+      <c r="F30" s="14"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12">
-        <v>20</v>
-      </c>
-      <c r="E31" s="12">
-        <v>20</v>
-      </c>
-      <c r="F31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="11">
+        <v>60</v>
+      </c>
+      <c r="E31" s="11">
+        <v>60</v>
+      </c>
+      <c r="F31" s="14"/>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12">
-        <f t="shared" ref="D32:E32" si="4">D$30*(D$31/1000)</f>
-        <v>0.36233333333333334</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="4"/>
-        <v>1.9389999999999998E-2</v>
-      </c>
-      <c r="F32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="11">
+        <f t="shared" ref="D32:E32" si="5">D$30*(D$31/1000)</f>
+        <v>1.087</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.41464916666666668</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="H32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="11">
         <v>5</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>5</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="14"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12">
-        <f t="shared" ref="D34:E34" si="5">D$32*D$33</f>
-        <v>1.8116666666666668</v>
-      </c>
-      <c r="E34" s="12">
-        <f t="shared" si="5"/>
-        <v>9.6949999999999981E-2</v>
-      </c>
-      <c r="F34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="11">
+        <f t="shared" ref="D34:E34" si="6">D$32*D$33</f>
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0732458333333335</v>
+      </c>
+      <c r="F34" s="14"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12">
-        <f t="shared" ref="D35:E35" si="6">D$34*24*365/1000</f>
-        <v>15.870200000000001</v>
-      </c>
-      <c r="E35" s="12">
-        <f t="shared" si="6"/>
-        <v>0.84928199999999976</v>
-      </c>
-      <c r="F35" s="16"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="11">
+        <f t="shared" ref="D35:E35" si="7">D$34*24*365/1000</f>
+        <v>47.610599999999998</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="7"/>
+        <v>18.161633500000004</v>
+      </c>
+      <c r="F35" s="14"/>
       <c r="H35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="13">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="12">
         <v>0.25702900000000001</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>0.25702900000000001</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="15"/>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15">
-        <f t="shared" ref="D37:E37" si="7">D$35*D$36</f>
-        <v>4.0791016357999998</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21829010317799993</v>
-      </c>
-      <c r="F37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="13">
+        <f t="shared" ref="D37:E37" si="8">D$35*D$36</f>
+        <v>12.2373049074</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="8"/>
+        <v>4.6680664968715009</v>
+      </c>
+      <c r="F37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
